--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2399022.596538928</v>
+        <v>-2401605.628608658</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5465416254796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>266.3337184291629</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.6020430621756</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>155.7500758545483</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191729002</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.8517409876645</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>57.68750238080805</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>171.1096626559154</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>63.25786276724418</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>146.5990350281144</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3863236130828</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.210704764723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856484</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>97.02629574295541</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>77.93612009725587</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>65.06198119183985</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2950343703264</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>14.19454216862619</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>65.67353929277093</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82351723687694</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,25 +2713,25 @@
         <v>171.0385136149755</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316661</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512506</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>137.6404960796074</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559695</v>
+        <v>136.6275814559694</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253071</v>
+        <v>156.730671725307</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792621</v>
+        <v>60.45446106358101</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160374</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.5817801431599</v>
       </c>
       <c r="S28" t="n">
         <v>172.2328194346828</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.6119837603265</v>
       </c>
       <c r="U28" t="n">
-        <v>246.7349952787746</v>
+        <v>277.3910078222823</v>
       </c>
       <c r="V28" t="n">
         <v>243.3441767568662</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696293</v>
+        <v>277.7295317696292</v>
       </c>
       <c r="X28" t="n">
         <v>216.9161888220754</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265257</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559527</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619115</v>
+        <v>1532.572829196573</v>
       </c>
       <c r="D2" t="n">
-        <v>1145.385526619115</v>
+        <v>1174.307130589822</v>
       </c>
       <c r="E2" t="n">
-        <v>759.5972740208704</v>
+        <v>788.5188779915779</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234163</v>
+        <v>377.5329732019704</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234163</v>
+        <v>377.5329732019703</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>2288.135186201106</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.9913724645205</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C4" t="n">
-        <v>218.9913724645205</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>218.9913724645205</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>218.9913724645205</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
         <v>163.8377936138381</v>
@@ -4486,10 +4486,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757128</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>831.0565485757128</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>831.0565485757128</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450112</v>
+        <v>541.9536817013563</v>
       </c>
       <c r="V4" t="n">
-        <v>729.2011216450112</v>
+        <v>541.9536817013563</v>
       </c>
       <c r="W4" t="n">
-        <v>439.7839516080506</v>
+        <v>541.9536817013563</v>
       </c>
       <c r="X4" t="n">
-        <v>439.7839516080506</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.9913724645205</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>2295.336172843074</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1926.373655902662</v>
       </c>
       <c r="D5" t="n">
-        <v>654.050464674405</v>
+        <v>1568.107957295912</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761608</v>
+        <v>1182.319704697668</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269573</v>
+        <v>771.3337999080602</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>356.2613497530567</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2681.936012907196</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1869.024343663434</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1677.33845949026</v>
+        <v>1754.45650500171</v>
       </c>
       <c r="T7" t="n">
-        <v>1455.571844059787</v>
+        <v>1754.45650500171</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.46897718543</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="V7" t="n">
-        <v>911.7844889795433</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W7" t="n">
-        <v>622.3673189425826</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X7" t="n">
-        <v>394.3777680445653</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.3777680445653</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.235319774533</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.235319774533</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.172432430963</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.403777160848</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.938018899768</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.798686923957</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3754302374108</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>641.4392473095039</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>491.3226078971682</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>491.3226078971682</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>344.4326603992578</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.168009380941</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.3754302374108</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,25 +5042,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.9255961109949</v>
+        <v>702.4944101284093</v>
       </c>
       <c r="C13" t="n">
-        <v>489.989413183088</v>
+        <v>533.5582272005024</v>
       </c>
       <c r="D13" t="n">
-        <v>489.989413183088</v>
+        <v>383.4415877881668</v>
       </c>
       <c r="E13" t="n">
-        <v>489.989413183088</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000576</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,19 +5200,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138412</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703111</v>
+        <v>884.142874958649</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,22 +5282,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,16 +5364,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>800.5007694647283</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>631.5645865368214</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>481.4479471244856</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036841</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.343372566517</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.268145910715</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.583657704828</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.166487667867</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.17693676985</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>982.149234294968</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,25 +5595,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121639</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121639</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>549.614540988804</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5893,28 +5893,28 @@
         <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.9192356072714</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>815.9830526793646</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>665.8664132670289</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072714</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3137.512533749971</v>
+        <v>663.4384611046067</v>
       </c>
       <c r="C28" t="n">
-        <v>2977.458640283642</v>
+        <v>663.4384611046067</v>
       </c>
       <c r="D28" t="n">
-        <v>2836.224290332883</v>
+        <v>663.4384611046067</v>
       </c>
       <c r="E28" t="n">
-        <v>2697.193486212068</v>
+        <v>524.4076569837912</v>
       </c>
       <c r="F28" t="n">
-        <v>2559.185828175735</v>
+        <v>386.3999989474585</v>
       </c>
       <c r="G28" t="n">
-        <v>2400.872018352192</v>
+        <v>228.086189123916</v>
       </c>
       <c r="H28" t="n">
-        <v>2268.042476655968</v>
+        <v>167.0210769384807</v>
       </c>
       <c r="I28" t="n">
-        <v>2268.042476655968</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2356.984026987584</v>
+        <v>182.7582133795879</v>
       </c>
       <c r="K28" t="n">
-        <v>2627.378821414415</v>
+        <v>453.1530078064186</v>
       </c>
       <c r="L28" t="n">
-        <v>3026.482947491647</v>
+        <v>852.2571338836508</v>
       </c>
       <c r="M28" t="n">
-        <v>3457.198182123973</v>
+        <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>3883.313585685274</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>4261.548398295551</v>
+        <v>2087.322584687555</v>
       </c>
       <c r="P28" t="n">
-        <v>4562.929385770402</v>
+        <v>2388.703572162406</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2458.443924504577</v>
       </c>
       <c r="S28" t="n">
-        <v>4516.860607515076</v>
+        <v>2284.471379621059</v>
       </c>
       <c r="T28" t="n">
-        <v>4516.860607515076</v>
+        <v>2073.752204105578</v>
       </c>
       <c r="U28" t="n">
-        <v>4267.633339556718</v>
+        <v>1793.559266911354</v>
       </c>
       <c r="V28" t="n">
-        <v>4021.831140812409</v>
+        <v>1547.757068167044</v>
       </c>
       <c r="W28" t="n">
-        <v>3741.296260237026</v>
+        <v>1267.222187591661</v>
       </c>
       <c r="X28" t="n">
-        <v>3522.188998800586</v>
+        <v>1048.114926155221</v>
       </c>
       <c r="Y28" t="n">
-        <v>3310.278709118633</v>
+        <v>836.2046364732689</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6616,13 +6616,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6649,19 +6649,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382518</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.265941231132</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,16 +7831,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.32950411623182</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.27404595815756</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>90.81900496075565</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.95957953448885</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.6212754172143</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.3791545843329</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.4978425493133</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>152.3434691354484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.13892827624275</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>271.989932220618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.3527467088737</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>112.6104454096922</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>158.453354531666</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512506</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>71.04678521568107</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160376</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315992</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603265</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.65601254350782</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1384958.042738269</v>
+        <v>1384958.04273827</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1384958.042738269</v>
+        <v>1384958.04273827</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1384958.04273827</v>
+        <v>1384958.042738269</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687494</v>
+        <v>32904.09773687493</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
@@ -26320,40 +26320,40 @@
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="F2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="G2" t="n">
         <v>40357.32998450029</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
         <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
-        <v>40608.90191777581</v>
+        <v>40608.90191777584</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508469</v>
+        <v>224565.975650847</v>
       </c>
       <c r="K3" t="n">
         <v>12392.94474006237</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569394</v>
+        <v>7034.77325356948</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.9447400624</v>
+        <v>12392.94474006237</v>
       </c>
     </row>
     <row r="4">
@@ -26418,25 +26418,25 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>16500.29683941609</v>
@@ -26445,16 +26445,16 @@
         <v>21597.66737493622</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493625</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493624</v>
+        <v>21597.6673749362</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493622</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
         <v>-159675.6949513732</v>
@@ -26528,40 +26528,40 @@
         <v>-159675.6949513732</v>
       </c>
       <c r="E6" t="n">
-        <v>-399784.4697586048</v>
+        <v>-399819.2076840404</v>
       </c>
       <c r="F6" t="n">
-        <v>-74372.00795124957</v>
+        <v>-74406.74587668525</v>
       </c>
       <c r="G6" t="n">
-        <v>-74372.00795124957</v>
+        <v>-74406.74587668527</v>
       </c>
       <c r="H6" t="n">
-        <v>-74372.00795124957</v>
+        <v>-74406.74587668527</v>
       </c>
       <c r="I6" t="n">
-        <v>-74372.00795124959</v>
+        <v>-74406.74587668527</v>
       </c>
       <c r="J6" t="n">
-        <v>-302319.1583372122</v>
+        <v>-302341.3176659842</v>
       </c>
       <c r="K6" t="n">
+        <v>-96102.63947569981</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-83709.69473563741</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-168764.7226711492</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-83709.6947356374</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-90744.4679892069</v>
+      </c>
+      <c r="P6" t="n">
         <v>-96102.63947569979</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-83709.69473563743</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-168764.7226711494</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-83709.69473563746</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-90744.46798920678</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-96102.63947569983</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507796</v>
+        <v>15.49118092507797</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961742</v>
+        <v>8.79346656696185</v>
       </c>
       <c r="P2" t="n">
-        <v>15.491180925078</v>
+        <v>15.49118092507797</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507796</v>
+        <v>15.49118092507797</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6421064805533</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>7.75602339965593</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24465028923928</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.65936267552647</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>291.4251788534388</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.31893511150571</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>35.6394846459454</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961763</v>
+        <v>8.79346656696179</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4703354763103</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32233,7 +32233,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32549,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33281,10 +33281,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.128623392977</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991513</v>
+        <v>89.83994982991516</v>
       </c>
       <c r="K28" t="n">
         <v>273.1260549765967</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860931</v>
+        <v>403.1354808860932</v>
       </c>
       <c r="M28" t="n">
         <v>435.0658935680069</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
